--- a/ExcelExamples/Introduction.xlsx
+++ b/ExcelExamples/Introduction.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Discounting" sheetId="2" r:id="rId1"/>
     <sheet name="Forecasting" sheetId="6" r:id="rId2"/>
     <sheet name="Developers" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -40,12 +41,6 @@
   </si>
   <si>
     <t>QSA.CreateFXForecastCurve</t>
-  </si>
-  <si>
-    <t>baseCurrency</t>
-  </si>
-  <si>
-    <t>counterCurrency</t>
   </si>
   <si>
     <t>USDZARForwards</t>
@@ -176,6 +171,12 @@
   </si>
   <si>
     <t>decimalPlaces</t>
+  </si>
+  <si>
+    <t>USDZAR</t>
+  </si>
+  <si>
+    <t>currencyPair</t>
   </si>
 </sst>
 </file>
@@ -292,13 +293,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,37 +632,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="234" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>42636</v>
       </c>
@@ -693,7 +694,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>46288</v>
       </c>
@@ -701,27 +702,27 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C5,B9:B10,C9:C10,C6)</f>
-        <v>ZARDiscount.12:50:47-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+        <v>ZARDiscount.20:55:31-11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>43070</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
         <f>_xll.QSA.GetDF(B12,C15)</f>
         <v>0.9174057038302269</v>
       </c>
@@ -738,53 +739,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,7 +813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>42636</v>
       </c>
@@ -826,7 +827,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>46288</v>
       </c>
@@ -840,93 +841,85 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C5,B9:B10,C9:C10,C6)</f>
-        <v>ZARBasisCurve.12:50:47-2</v>
+        <v>ZARBasisCurve.20:55:31-10</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(F5,E9:E10,F9:F10,F6)</f>
-        <v>USDBasisCurve.12:50:47-1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+        <v>USDBasisCurve.20:55:31-9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f>E12</f>
+        <v>USDBasisCurve.20:55:31-9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C19" s="8" t="str">
-        <f>E12</f>
-        <v>USDBasisCurve.12:50:47-1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8" t="str">
         <f>B12</f>
-        <v>ZARBasisCurve.12:50:47-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>ZARBasisCurve.20:55:31-10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="str">
-        <f>_xll.QSA.CreateFXForecastCurve(C15,C16,C17,C18,C19,C20)</f>
-        <v>USDZARForwards.12:50:47-4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+        <f ca="1">_xll.QSA.CreateFXForecastCurve(C15,C16,C17,C18,C19)</f>
+        <v>USDZARForwards.21:08:10-13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3">
         <v>43070</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
-        <f>_xll.QSA.GetFXRate(B22,C25)</f>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <f ca="1">_xll.QSA.GetFXRate(B22,C25)</f>
         <v>14.709658424984218</v>
       </c>
     </row>
@@ -942,53 +935,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -996,7 +989,7 @@
         <v>0.81470589943155036</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -1004,7 +997,7 @@
         <v>1.9775845708537259</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1012,26 +1005,26 @@
         <v>3.0070616232059786</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="str">
         <f t="array" ref="B14:B16">_xll.QSA.GetCSArray(B9:C11,2)</f>
         <v>{{1.00,0.81},</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="str">
         <v>{2.00,1.98},</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="str">
         <v>{3.00,3.01}}</v>
       </c>
